--- a/HUSKTemplete.xlsx
+++ b/HUSKTemplete.xlsx
@@ -456,7 +456,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HUSKTemplete.xlsx
+++ b/HUSKTemplete.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Sr no</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Purchase Tax Free</t>
+  </si>
+  <si>
+    <t>QT TYPE</t>
+  </si>
+  <si>
+    <t>/kg</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +474,7 @@
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,8 +502,11 @@
       <c r="I1" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="J1" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -525,8 +534,11 @@
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>6</v>
       </c>
@@ -554,8 +566,11 @@
       <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>7</v>
       </c>
@@ -583,8 +598,11 @@
       <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>15</v>
       </c>
@@ -611,6 +629,9 @@
       </c>
       <c r="I5" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
